--- a/comms/assets/protocol comparison.xlsx
+++ b/comms/assets/protocol comparison.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T480s\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T480s\Desktop\CSC2003-A2\comms\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B2872A2-513F-4FB8-B775-9D4FA93288D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B554A143-04BD-4316-B6B3-28F39F82A796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{FDA7D006-6B32-42CE-BBEB-F72BC9CF912D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FDA7D006-6B32-42CE-BBEB-F72BC9CF912D}"/>
   </bookViews>
   <sheets>
     <sheet name="M5 RTT" sheetId="1" r:id="rId1"/>
@@ -249,10 +249,10 @@
                   <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>196</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>144</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>124</c:v>
@@ -261,22 +261,22 @@
                   <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>74</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>86</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>68</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>104</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>78</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>70</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>136</c:v>
@@ -297,22 +297,22 @@
                   <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>140</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>126</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>106</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>134</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>118</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>112</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>110</c:v>
@@ -3447,10 +3447,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>372035</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>519953</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
@@ -3564,10 +3564,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3869,8 +3865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23A1E4F-BC5E-4500-A4F3-AD6D03058189}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:C31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3926,7 +3922,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>196</v>
+        <v>70</v>
       </c>
       <c r="B5">
         <v>40.700000000000003</v>
@@ -3937,7 +3933,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B6">
         <v>39.9</v>
@@ -3969,8 +3965,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>74</v>
+      <c r="A9" s="1">
+        <v>140</v>
       </c>
       <c r="B9">
         <v>40.5</v>
@@ -3981,7 +3977,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="B10">
         <v>41.099999999999994</v>
@@ -3992,7 +3988,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="B11">
         <v>43.4</v>
@@ -4003,7 +3999,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="B12">
         <v>43.7</v>
@@ -4014,7 +4010,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="B13">
         <v>46.5</v>
@@ -4025,7 +4021,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="B14">
         <v>42</v>
@@ -4101,8 +4097,8 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>140</v>
+      <c r="A21" s="2">
+        <v>74</v>
       </c>
       <c r="B21">
         <v>41.8</v>
@@ -4113,7 +4109,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="B22">
         <v>46.800000000000004</v>
@@ -4124,7 +4120,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="B23">
         <v>44.900000000000006</v>
@@ -4135,7 +4131,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="B24">
         <v>41.5</v>
@@ -4146,7 +4142,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="B25">
         <v>44.4</v>
@@ -4157,7 +4153,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="B26">
         <v>45.8</v>
@@ -4650,7 +4646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5470E8F7-3742-4555-AE2F-2EB33AB62BBA}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="57" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="A29" zoomScale="57" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="T41" sqref="T41"/>
     </sheetView>
   </sheetViews>
@@ -5384,15 +5380,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010088BDD8624AECDB4B95F380141F718A58" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7522a55f8b70cb6a86c4fb5b29147e99">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="cb9800d5-cf5e-44de-b970-94dd04ea01e8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b1e54bd6bb479e02418dae4ae441a080" ns3:_="">
     <xsd:import namespace="cb9800d5-cf5e-44de-b970-94dd04ea01e8"/>
@@ -5536,6 +5523,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B2175EA-64B6-42E5-84CB-AB33088AFA1A}">
   <ds:schemaRefs>
@@ -5553,14 +5549,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B95FA551-66E3-4D10-AC61-30C5ABE64204}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{613214EE-48DD-4204-B1BB-A68FDF74DA64}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5576,4 +5564,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B95FA551-66E3-4D10-AC61-30C5ABE64204}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/comms/assets/protocol comparison.xlsx
+++ b/comms/assets/protocol comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T480s\Desktop\CSC2003-A2\comms\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B554A143-04BD-4316-B6B3-28F39F82A796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF2DF9A-0709-46B1-A0CB-2036B876E6AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FDA7D006-6B32-42CE-BBEB-F72BC9CF912D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{FDA7D006-6B32-42CE-BBEB-F72BC9CF912D}"/>
   </bookViews>
   <sheets>
     <sheet name="M5 RTT" sheetId="1" r:id="rId1"/>
@@ -3865,7 +3865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23A1E4F-BC5E-4500-A4F3-AD6D03058189}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
@@ -4644,10 +4644,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5470E8F7-3742-4555-AE2F-2EB33AB62BBA}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="57" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="T41" sqref="T41"/>
+    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4659,7 +4659,7 @@
     <col min="5" max="5" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1574</v>
       </c>
@@ -4692,8 +4692,9 @@
       <c r="E2" s="3">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1707</v>
       </c>
@@ -4709,8 +4710,9 @@
       <c r="E3" s="3">
         <v>21.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1425</v>
       </c>
@@ -4726,8 +4728,9 @@
       <c r="E4" s="3">
         <v>20.25</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1540</v>
       </c>
@@ -4743,8 +4746,9 @@
       <c r="E5" s="3">
         <v>20.350000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1571</v>
       </c>
@@ -4760,8 +4764,9 @@
       <c r="E6" s="3">
         <v>19.95</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1488</v>
       </c>
@@ -4777,8 +4782,9 @@
       <c r="E7" s="3">
         <v>22.950000000000003</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1623</v>
       </c>
@@ -4794,8 +4800,9 @@
       <c r="E8" s="3">
         <v>19.900000000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1435</v>
       </c>
@@ -4811,8 +4818,9 @@
       <c r="E9" s="3">
         <v>20.25</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1539</v>
       </c>
@@ -4828,8 +4836,9 @@
       <c r="E10" s="3">
         <v>20.549999999999997</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1642</v>
       </c>
@@ -4845,8 +4854,9 @@
       <c r="E11" s="3">
         <v>21.7</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1495</v>
       </c>
@@ -4862,8 +4872,9 @@
       <c r="E12" s="3">
         <v>21.85</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1658</v>
       </c>
@@ -4879,8 +4890,9 @@
       <c r="E13" s="3">
         <v>23.25</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1467</v>
       </c>
@@ -4896,8 +4908,9 @@
       <c r="E14" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1662</v>
       </c>
@@ -4913,8 +4926,9 @@
       <c r="E15" s="3">
         <v>21.9</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1578</v>
       </c>
@@ -4930,8 +4944,9 @@
       <c r="E16" s="3">
         <v>20.7</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1443</v>
       </c>
@@ -4947,8 +4962,9 @@
       <c r="E17" s="3">
         <v>22.25</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1439</v>
       </c>
@@ -4964,8 +4980,9 @@
       <c r="E18" s="3">
         <v>22.75</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1626</v>
       </c>
@@ -4981,8 +4998,9 @@
       <c r="E19" s="3">
         <v>25.05</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1408</v>
       </c>
@@ -4998,8 +5016,9 @@
       <c r="E20" s="3">
         <v>18.8</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1405</v>
       </c>
@@ -5015,8 +5034,9 @@
       <c r="E21" s="3">
         <v>20.9</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1622</v>
       </c>
@@ -5032,8 +5052,9 @@
       <c r="E22" s="3">
         <v>23.400000000000002</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1492</v>
       </c>
@@ -5049,8 +5070,9 @@
       <c r="E23" s="3">
         <v>22.450000000000003</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>1592</v>
       </c>
@@ -5066,8 +5088,9 @@
       <c r="E24" s="3">
         <v>20.75</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>1536</v>
       </c>
@@ -5083,8 +5106,9 @@
       <c r="E25" s="3">
         <v>22.2</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>1677</v>
       </c>
@@ -5100,8 +5124,9 @@
       <c r="E26" s="3">
         <v>22.9</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>1482</v>
       </c>
@@ -5117,8 +5142,9 @@
       <c r="E27" s="3">
         <v>21.35</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>1418</v>
       </c>
@@ -5134,8 +5160,9 @@
       <c r="E28" s="3">
         <v>22.349999999999998</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>1463</v>
       </c>
@@ -5151,8 +5178,9 @@
       <c r="E29" s="3">
         <v>22.450000000000003</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>1465</v>
       </c>
@@ -5168,8 +5196,9 @@
       <c r="E30" s="3">
         <v>21.95</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>1470</v>
       </c>
@@ -5185,8 +5214,9 @@
       <c r="E31" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>1430</v>
       </c>
@@ -5202,8 +5232,9 @@
       <c r="E32" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>1639</v>
       </c>
@@ -5219,8 +5250,9 @@
       <c r="E33" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>1438</v>
       </c>
@@ -5236,8 +5268,9 @@
       <c r="E34" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>1422</v>
       </c>
@@ -5253,8 +5286,9 @@
       <c r="E35" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>1400</v>
       </c>
@@ -5270,8 +5304,9 @@
       <c r="E36" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>1512</v>
       </c>
@@ -5287,8 +5322,9 @@
       <c r="E37" s="3">
         <v>23</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>1682</v>
       </c>
@@ -5304,8 +5340,9 @@
       <c r="E38" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <f>SUM(A2:A38)</f>
         <v>56465</v>
@@ -5327,7 +5364,7 @@
         <v>773.15000000000009</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
@@ -5344,7 +5381,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <f>A39/37</f>
         <v>1526.081081081081</v>
@@ -5374,9 +5411,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5524,26 +5564,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B2175EA-64B6-42E5-84CB-AB33088AFA1A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B95FA551-66E3-4D10-AC61-30C5ABE64204}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="cb9800d5-cf5e-44de-b970-94dd04ea01e8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5567,9 +5596,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B95FA551-66E3-4D10-AC61-30C5ABE64204}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B2175EA-64B6-42E5-84CB-AB33088AFA1A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="cb9800d5-cf5e-44de-b970-94dd04ea01e8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>